--- a/Template-UserStories-V2-1(1).xlsx
+++ b/Template-UserStories-V2-1(1).xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="126">
   <si>
     <t xml:space="preserve">Solution: 
 DEVELOPMENT OF A SOFTWARE TOOL TO IMPLEMENT A VISION-BASED NAVIGATION METHOD IN LOW-TEXTURED ENVIRONMENTS </t>
@@ -414,7 +414,7 @@
     <t xml:space="preserve">Data Acquisition</t>
   </si>
   <si>
-    <t xml:space="preserve">immediate and clear error messages if an image or metadata file is missing or corrupted</t>
+    <t xml:space="preserve">to know if a file is corrupted</t>
   </si>
   <si>
     <t xml:space="preserve">I can correct my inputs before proceeding</t>
@@ -483,13 +483,83 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
+      <t xml:space="preserve">the system should allow me to re-upload another dataset.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Not applicable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a Developer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clear error messages if an image or metadata file is missing or corrupted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the software pipeline execution flows</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I'm a Developer, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> the system detects that the file is missing or corrupted,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Then </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve">it displays a descriptive error message, prompts me to re-upload or skip, and logs the error details for reference.</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Not applicable</t>
-  </si>
-  <si>
     <t xml:space="preserve">the system to accept JPEG, PNG, and TIFF files</t>
   </si>
   <si>
@@ -566,9 +636,6 @@
     <t xml:space="preserve"> Preprocessing</t>
   </si>
   <si>
-    <t xml:space="preserve">As a Developer</t>
-  </si>
-  <si>
     <t xml:space="preserve">the system to automatically resize all images to 720×480</t>
   </si>
   <si>
@@ -594,26 +661,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> I'm a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Developer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, 
+      <t xml:space="preserve"> I'm a Developer, 
 </t>
     </r>
     <r>
@@ -635,7 +683,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> the system processes them,
+      <t xml:space="preserve"> the system takes as input the acquired dataset,
 </t>
     </r>
     <r>
@@ -657,7 +705,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">each image is automatically resized to 720×480, preserving aspect ratio as much as possible, and subsequent operations use the resized dimensions.</t>
+      <t xml:space="preserve">each image is automatically resized to 720×480, preserving aspect ratio as much as possible, and following operations use the resized dimensions.</t>
     </r>
   </si>
   <si>
@@ -677,6 +725,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Given</t>
     </r>
@@ -686,6 +735,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> I'm a Developer, 
 </t>
@@ -697,6 +747,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">When</t>
     </r>
@@ -706,6 +757,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> I enable or disable Gaussian, Median, or Bilateral filters,
 </t>
@@ -717,6 +769,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Then </t>
     </r>
@@ -726,6 +779,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">the system applies/reverts those filters to reduce noise and logs any errors if parameter issues occur.</t>
     </r>
@@ -741,6 +795,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Given</t>
     </r>
@@ -750,6 +805,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> I'm a user, 
 </t>
@@ -761,6 +817,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">When</t>
     </r>
@@ -770,6 +827,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">  I enable or disable Gaussian, Median, or Bilateral filters,
 </t>
@@ -781,6 +839,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Then </t>
     </r>
@@ -790,12 +849,16 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">the system applies those filters to reduce noise, displays the filtered image next to the original, and logs any errors if parameter issues occur.</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">to enhance image contrast using adaptive thresholding and CLAHE</t>
+    <t xml:space="preserve">Filtering selection button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to enhance image contrast using adaptive thresholding and  Contrast Limited Adaptive Histogram Equalization (CLAHE)</t>
   </si>
   <si>
     <t xml:space="preserve">I can improve edge clarity in challenging conditions (fog, low light)</t>
@@ -808,6 +871,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Given</t>
     </r>
@@ -817,6 +881,153 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> I'm a Developer, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">  I  process an image in grayscale or with its blue channel extracted,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Then </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">the resulting output reveals improved contrast around skyline edges, especially in low-light or foggy areas.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">to apply dilation, erosion, and interpolation for continuous skyline lines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">small gaps or occlusions don’t break the skyline detection</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> I'm a Developer, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> the system detects gaps in the skyline,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Then </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">it smooths edges with these operations, fills the gaps using SciPy interpolation, and logs how many gaps were successfully resolved.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">to choose Sobel or Canny edge detection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I can compare which algorithm gives better skyline results in my dataset</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> I'm a user, 
 </t>
@@ -828,6 +1039,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">When</t>
     </r>
@@ -837,17 +1049,19 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  I  process an image in grayscale or with its blue channel extracted,
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> I select either Sobel or Canny,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Then </t>
     </r>
@@ -857,24 +1071,30 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">the resulting output reveals improved contrast around skyline edges, especially in low-light or foggy areas.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">to apply dilation, erosion, and interpolation for continuous skyline lines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">small gaps or occlusions don’t break the skyline detection</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">the system applies that algorithm, updates the current preview accordingly, and logs any errors if the process fails.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Edge Detector button
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to choose Sobel or Canny edge detection based on user choice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The user can compare which algorithm gives better skyline results regarding the choosen dataset</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Given</t>
     </r>
@@ -884,6 +1104,80 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> I'm a Developer, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> I apply either Sobel or Canny,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Then </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">the system applies that algorithm, updates the current preview accordingly, and logs any errors if the process fails.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">to see a prioritized list of skyline candidates based on length, contrast, and continuity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I can quickly identify the most likely skylines</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> I'm a user, 
 </t>
@@ -895,6 +1189,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">When</t>
     </r>
@@ -904,17 +1199,19 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> the system detects gaps in the skyline,
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> it calculates a viability score for each based on length, contrast, and continuity,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Then </t>
     </r>
@@ -924,24 +1221,26 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">it smooths edges with these operations, fills the gaps using SciPy interpolation, and logs how many gaps were successfully resolved.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">to choose Sobel or Canny edge detection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I can compare which algorithm gives better skyline results in my dataset</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">the top-ranked edges are highlighted in the UI and a help dialog explains how the ranking is determined.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">to craft a prioritized list of skyline candidates based on length, contrast, and continuity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The likelihood of detecting the right skyline increases</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Given</t>
     </r>
@@ -951,17 +1250,19 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I'm a user, 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> I'm a Developer, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">When</t>
     </r>
@@ -971,17 +1272,19 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I select either Sobel or Canny,
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> it calculates a viability score for each based on length, contrast, and continuity,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Then </t>
     </r>
@@ -991,24 +1294,29 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">the system applies that algorithm, updates the current preview accordingly, and logs any errors if the process fails.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">to see a prioritized list of skyline candidates based on length, contrast, and continuity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I can quickly identify the most likely skylines</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">top-rank edges and highlight them in the UI and a help dialog explains how the ranking is determined.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Feature Extraction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to implement contour-based segmentation and keypoint extraction using OpenSIFT or ORB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the system identifies robust skyline features in low-textured images</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Given</t>
     </r>
@@ -1018,17 +1326,19 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I'm a user, 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> I'm a Developer, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">When</t>
     </r>
@@ -1038,17 +1348,19 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> it calculates a viability score for each based on length, contrast, and continuity,
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> the system processes an image,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Then </t>
     </r>
@@ -1058,12 +1370,173 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">the top-ranked edges are highlighted in the UI and a help dialog explains how the ranking is determined.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Feature Extraction</t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">it identifies significant contours, extracts keypoints from those regions, and filters out small or irrelevant keypoint clusters.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">to integrate an SVM model that classifies skyline vs. non-skyline edges</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I can reduce false positives and refine final detection results</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> I'm a Developer, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> the system completes skyline detection,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Then </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">each edge is classified as skyline or non-skyline, false edges are removed from the final overlay, and classification confidence scores are displayed in logs or an info panel.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Skyline Candidacy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the system to reject skyline candidates with discontinuities, excessive noise, or weak contrast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">final outputs only include consistent, accurate skylines</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> I'm a Developer, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> it validates them against continuity, noise, and contrast thresholds,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Then </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">any failing candidate is rejected, removed from overlays, and the rejection reason is logged.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Report Generation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the system to auto-save my session every 5 minutes and generate a final report (YAML/JSON/XML)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I can preserve my work and keep track of every processing step</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given I'm a User, 
+When 5 minutes pass the system auto-saves the session, and
+Then on session close or user request, it generates a report (YAML/JSON/XML) containing images, skyline data, classification results, and chosen parameters.</t>
   </si>
   <si>
     <t xml:space="preserve">Data acquisition</t>
@@ -1305,16 +1778,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -1475,6 +1948,20 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="medium"/>
       <right style="medium"/>
       <top/>
@@ -1492,13 +1979,6 @@
       <left style="medium"/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right/>
-      <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
@@ -1507,13 +1987,6 @@
       <right/>
       <top style="thin"/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="medium"/>
       <diagonal/>
     </border>
   </borders>
@@ -1542,7 +2015,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="70">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1572,13 +2045,17 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1604,7 +2081,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1631,10 +2108,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1643,19 +2116,23 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1667,220 +2144,40 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1891,7 +2188,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1939,11 +2236,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1951,19 +2252,47 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2044,19 +2373,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:H31"/>
+  <dimension ref="B2:H22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="3" topLeftCell="E13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="3" topLeftCell="E4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="16.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="30.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="34.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="52.85"/>
@@ -2112,10 +2441,10 @@
       <c r="E4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="6" t="s">
@@ -2124,57 +2453,57 @@
     </row>
     <row r="5" customFormat="false" ht="82.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="5"/>
-      <c r="C5" s="10" t="n">
+      <c r="C5" s="11" t="n">
         <v>2</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="68.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="5"/>
-      <c r="C6" s="14" t="n">
+      <c r="C6" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="20" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="92.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="21" t="n">
+      <c r="C7" s="22" t="n">
         <v>4</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="22" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="23" t="s">
@@ -2188,338 +2517,354 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="92.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="21" t="n">
-        <v>5</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="21" t="s">
+      <c r="C8" s="22" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" s="23" t="s">
         <v>27</v>
       </c>
+      <c r="E8" s="26" t="s">
+        <v>28</v>
+      </c>
       <c r="F8" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="24" t="s">
         <v>29</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>30</v>
       </c>
       <c r="H8" s="25" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="92.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="27" t="n">
-        <v>6</v>
-      </c>
-      <c r="D9" s="28" t="s">
+      <c r="B9" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="F9" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="G9" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="31" t="s">
+      <c r="H9" s="25" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="92.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="29" t="n">
+        <v>6</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="27" t="n">
-        <v>7</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="27" t="s">
+      <c r="F10" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="G10" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="31" t="s">
+      <c r="H10" s="32" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="92.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="27" t="n">
-        <v>8</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="27" t="s">
+      <c r="B11" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="29" t="n">
+        <v>7</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="32" t="s">
+      <c r="F11" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="31" t="s">
+      <c r="G11" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="32" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="92.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="27" t="n">
+      <c r="B12" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="29" t="n">
+        <v>8</v>
+      </c>
+      <c r="D12" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="29" t="s">
+      <c r="E12" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="32" t="s">
+      <c r="F12" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="31"/>
+      <c r="H12" s="33" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="92.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="27" t="n">
-        <v>10</v>
-      </c>
-      <c r="D13" s="28" t="s">
+      <c r="B13" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="29" t="n">
         <v>9</v>
       </c>
-      <c r="E13" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="29" t="s">
+      <c r="D13" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="32" t="s">
+      <c r="F13" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="31"/>
+      <c r="G13" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="32" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="92.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="27" t="n">
-        <v>11</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="29" t="s">
+      <c r="B14" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="29" t="n">
+        <v>10</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="32" t="s">
+      <c r="F14" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="31"/>
+      <c r="G14" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="32" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="92.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="27" t="n">
-        <v>12</v>
-      </c>
-      <c r="D15" s="28" t="s">
+      <c r="B15" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="29" t="n">
+        <v>11</v>
+      </c>
+      <c r="D15" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="29" t="s">
+      <c r="E15" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="32" t="s">
+      <c r="F15" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="H15" s="31"/>
+      <c r="G15" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="92.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="38"/>
+      <c r="B16" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="29" t="n">
+        <v>12</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" s="32" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="27"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="42"/>
+    <row r="17" customFormat="false" ht="92.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B17" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="29" t="n">
+        <v>13</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" s="32" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="27"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="42"/>
+    <row r="18" customFormat="false" ht="92.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B18" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="29" t="n">
+        <v>14</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="32" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="19" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="27"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="42"/>
+    <row r="19" customFormat="false" ht="92.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B19" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" s="39" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="27"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="42"/>
+    <row r="20" customFormat="false" ht="92.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B20" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="36" t="n">
+        <v>16</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="39" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="21" customFormat="false" ht="93.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="51"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="52"/>
+    <row r="21" customFormat="false" ht="92.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B21" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="29" t="n">
+        <v>17</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" s="32" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="22" customFormat="false" ht="96" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="51"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="52"/>
-    </row>
-    <row r="23" customFormat="false" ht="75.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="61"/>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="42"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="61"/>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="65"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="68"/>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="65"/>
-      <c r="C26" s="70"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="75"/>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="76"/>
-      <c r="C27" s="77"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="78"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="79"/>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="76"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="80"/>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="76"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="80"/>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="76"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="80"/>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="76"/>
-      <c r="C31" s="81"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="82"/>
-      <c r="F31" s="83"/>
-      <c r="G31" s="82"/>
-      <c r="H31" s="84"/>
+    <row r="22" customFormat="false" ht="92.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B22" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="36" t="n">
+        <v>18</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="H22" s="39" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="2">
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="H17:H20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B31"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2538,13 +2883,13 @@
   </sheetPr>
   <dimension ref="B1:H16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="9.14"/>
@@ -2593,279 +2938,279 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="60.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="85" t="s">
-        <v>54</v>
+      <c r="B4" s="41" t="s">
+        <v>79</v>
       </c>
       <c r="C4" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>56</v>
+        <v>80</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="90.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="85"/>
-      <c r="C5" s="10" t="n">
+      <c r="B5" s="41"/>
+      <c r="C5" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>62</v>
+      <c r="E5" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="60.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="85"/>
-      <c r="C6" s="19" t="n">
+      <c r="B6" s="41"/>
+      <c r="C6" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="F6" s="87" t="s">
-        <v>64</v>
-      </c>
-      <c r="G6" s="86" t="s">
-        <v>65</v>
-      </c>
-      <c r="H6" s="86" t="s">
-        <v>66</v>
+      <c r="E6" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="H6" s="42" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="105.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="88" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="89" t="n">
+      <c r="B7" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="45" t="n">
         <v>4</v>
       </c>
-      <c r="D7" s="90" t="s">
+      <c r="D7" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="91" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7" s="90" t="s">
-        <v>69</v>
-      </c>
-      <c r="G7" s="91" t="s">
-        <v>70</v>
-      </c>
-      <c r="H7" s="92" t="s">
-        <v>71</v>
+      <c r="E7" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="H7" s="48" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="105.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="88"/>
-      <c r="C8" s="93" t="n">
+      <c r="B8" s="44"/>
+      <c r="C8" s="49" t="n">
         <v>5</v>
       </c>
-      <c r="D8" s="90" t="s">
+      <c r="D8" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="94" t="s">
-        <v>72</v>
-      </c>
-      <c r="F8" s="95" t="s">
-        <v>73</v>
-      </c>
-      <c r="G8" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="H8" s="92"/>
+      <c r="E8" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="H8" s="48"/>
     </row>
     <row r="9" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="88"/>
-      <c r="C9" s="96" t="n">
+      <c r="B9" s="44"/>
+      <c r="C9" s="52" t="n">
         <v>6</v>
       </c>
-      <c r="D9" s="97" t="s">
+      <c r="D9" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="98" t="s">
-        <v>75</v>
-      </c>
-      <c r="F9" s="99" t="s">
-        <v>64</v>
-      </c>
-      <c r="G9" s="98" t="s">
-        <v>76</v>
-      </c>
-      <c r="H9" s="92"/>
+      <c r="E9" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="H9" s="48"/>
     </row>
     <row r="10" customFormat="false" ht="60.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="100" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="39" t="n">
+      <c r="B10" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="57" t="n">
         <v>11</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="D10" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="G10" s="101" t="s">
-        <v>80</v>
-      </c>
-      <c r="H10" s="41" t="s">
-        <v>81</v>
+      <c r="E10" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" s="60" t="s">
+        <v>105</v>
+      </c>
+      <c r="H10" s="59" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="60.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="100"/>
-      <c r="C11" s="47" t="n">
+      <c r="B11" s="56"/>
+      <c r="C11" s="61" t="n">
         <v>12</v>
       </c>
-      <c r="D11" s="44" t="s">
+      <c r="D11" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="F11" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="G11" s="102" t="s">
-        <v>83</v>
-      </c>
-      <c r="H11" s="82" t="s">
-        <v>84</v>
+      <c r="E11" s="63" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" s="65" t="s">
+        <v>108</v>
+      </c>
+      <c r="H11" s="66" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="60.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="88" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" s="89" t="n">
+      <c r="B12" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="45" t="n">
         <v>23</v>
       </c>
-      <c r="D12" s="90" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="91" t="s">
-        <v>86</v>
-      </c>
-      <c r="F12" s="90" t="s">
-        <v>87</v>
-      </c>
-      <c r="G12" s="91" t="s">
-        <v>88</v>
-      </c>
-      <c r="H12" s="103" t="s">
+      <c r="D12" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="F12" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="H12" s="67" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="60.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="88"/>
-      <c r="C13" s="93" t="n">
+      <c r="B13" s="44"/>
+      <c r="C13" s="49" t="n">
         <v>24</v>
       </c>
-      <c r="D13" s="90" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="94" t="s">
-        <v>89</v>
-      </c>
-      <c r="F13" s="95" t="s">
-        <v>90</v>
-      </c>
-      <c r="G13" s="94" t="s">
-        <v>91</v>
-      </c>
-      <c r="H13" s="104" t="s">
+      <c r="D13" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="H13" s="68" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="60.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="88"/>
-      <c r="C14" s="93" t="n">
+      <c r="B14" s="44"/>
+      <c r="C14" s="49" t="n">
         <v>25</v>
       </c>
-      <c r="D14" s="90" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="94" t="s">
-        <v>92</v>
-      </c>
-      <c r="F14" s="95" t="s">
-        <v>93</v>
-      </c>
-      <c r="G14" s="94" t="s">
-        <v>94</v>
-      </c>
-      <c r="H14" s="104" t="s">
+      <c r="D14" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="F14" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="G14" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="H14" s="68" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="60.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="88"/>
-      <c r="C15" s="93" t="n">
+      <c r="B15" s="44"/>
+      <c r="C15" s="49" t="n">
         <v>26</v>
       </c>
-      <c r="D15" s="90" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="94" t="s">
-        <v>95</v>
-      </c>
-      <c r="F15" s="95" t="s">
-        <v>96</v>
-      </c>
-      <c r="G15" s="94" t="s">
-        <v>97</v>
-      </c>
-      <c r="H15" s="104" t="s">
+      <c r="D15" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="F15" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="G15" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="H15" s="68" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="60.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="88"/>
-      <c r="C16" s="96" t="n">
+      <c r="B16" s="44"/>
+      <c r="C16" s="52" t="n">
         <v>27</v>
       </c>
-      <c r="D16" s="90" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="98" t="s">
-        <v>98</v>
-      </c>
-      <c r="F16" s="99" t="s">
-        <v>99</v>
-      </c>
-      <c r="G16" s="98" t="s">
-        <v>100</v>
-      </c>
-      <c r="H16" s="105" t="s">
+      <c r="D16" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="54" t="s">
+        <v>123</v>
+      </c>
+      <c r="F16" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="G16" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="H16" s="69" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2895,11 +3240,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
